--- a/trunk/SRS ENTREGA/ENCUESTAS.xlsx
+++ b/trunk/SRS ENTREGA/ENCUESTAS.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="ENCUESTA DE CRITERIOS" sheetId="1" r:id="rId1"/>
     <sheet name="ALCANCE DE REQUERIMIENTOS" sheetId="2" r:id="rId2"/>
     <sheet name="ENCUESTA COSTOS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="153">
   <si>
     <t>PRIORIDAD DE LOS REQUERIMIENTOS (1-10)</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t xml:space="preserve"> ALCANCE ES SI CADA UNO CREE QUE SE VA A HACER ENTONCES 1 SIGNIFICA SI, 0 SIGNIFICA NO</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -744,6 +747,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -757,9 +763,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1061,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1077,30 +1080,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -1141,18 +1144,22 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="str">
+        <f>SUM(B4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="e">
+        <f>AVERAGE(B4:G4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="10" t="e">
         <f>IF(I4&lt;=4,"DESEABLE",IF(I4&lt;=7,"OPCIONAL",IF(I4&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
-        <v>DESEABLE</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1162,18 +1169,22 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
+      <c r="H5" s="18">
+        <f t="shared" ref="H5:H68" si="0">SUM(B5:G5)</f>
+        <v>8</v>
+      </c>
+      <c r="I5" s="18">
+        <f t="shared" ref="I5:I68" si="1">AVERAGE(B5:G5)</f>
+        <v>8</v>
       </c>
       <c r="J5" s="14" t="str">
-        <f t="shared" ref="J5:J68" si="0">IF(I5&lt;=4,"DESEABLE",IF(I5&lt;=7,"OPCIONAL",IF(I5&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
-        <v>DESEABLE</v>
+        <f t="shared" ref="J5:J68" si="2">IF(I5&lt;=4,"DESEABLE",IF(I5&lt;=7,"OPCIONAL",IF(I5&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1183,17 +1194,21 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J6" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
       <c r="L6" s="15" t="s">
@@ -1210,17 +1225,21 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J7" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
       <c r="L7" s="16" t="s">
@@ -1237,18 +1256,22 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
+      <c r="H8" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="J8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>CLAVE</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>143</v>
@@ -1264,18 +1287,22 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
+      <c r="H9" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="J9" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>CLAVE</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>145</v>
@@ -1291,18 +1318,22 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="J10" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>147</v>
@@ -1318,18 +1349,22 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>9</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
+      <c r="H11" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="J11" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>CLAVE</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,18 +1374,22 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="J12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>CLAVE</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,18 +1399,22 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14" t="str">
+      <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <v>0</v>
+      </c>
+      <c r="I13" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,18 +1424,22 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
+      <c r="H14" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="J14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>CLAVE</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,18 +1449,22 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>7</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
+      <c r="H15" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I15" s="18">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="J15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,18 +1474,22 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
+      <c r="H16" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="J16" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,18 +1499,22 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>7</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
+      <c r="H17" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="J17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,18 +1524,22 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
+      <c r="H18" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J18" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,18 +1549,22 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
+      <c r="H19" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,18 +1574,22 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>6</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J20" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,18 +1599,22 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>6</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,18 +1624,22 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>6</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
+      <c r="H22" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J22" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,18 +1649,22 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="14" t="str">
+      <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <v>0</v>
+      </c>
+      <c r="I23" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,18 +1674,22 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>8</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
+      <c r="H24" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I24" s="18">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="J24" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,18 +1699,22 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>8</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
+      <c r="H25" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I25" s="18">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="J25" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,18 +1724,22 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="14" t="str">
+      <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <v>0</v>
+      </c>
+      <c r="I26" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,17 +1749,21 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
+      <c r="H27" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I27" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J27" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1675,17 +1774,21 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
+      <c r="H28" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I28" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J28" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1696,17 +1799,21 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
+      <c r="H29" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I29" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J29" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1717,17 +1824,21 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
+      <c r="H30" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I30" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J30" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1738,17 +1849,21 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
+      <c r="H31" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I31" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J31" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1759,17 +1874,21 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
+      <c r="H32" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I32" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J32" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1780,17 +1899,21 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
+      <c r="H33" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I33" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J33" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1801,17 +1924,21 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
+      <c r="H34" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I34" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J34" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1822,17 +1949,21 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
+      <c r="H35" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I35" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J35" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1843,17 +1974,21 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
+      <c r="H36" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I36" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J36" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1864,17 +1999,21 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
+      <c r="H37" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I37" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J37" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1885,17 +2024,21 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>4</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
+      <c r="H38" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I38" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J38" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1906,17 +2049,21 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
+      <c r="H39" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I39" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J39" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1927,17 +2074,21 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
+      <c r="H40" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I40" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J40" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1948,17 +2099,21 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
+      <c r="H41" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I41" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J41" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -1969,18 +2124,22 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>6</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
+      <c r="H42" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I42" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J42" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1990,18 +2149,22 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="14" t="str">
+      <c r="H43" s="18">
         <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <v>0</v>
+      </c>
+      <c r="I43" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2011,18 +2174,22 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
+      <c r="H44" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J44" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2032,18 +2199,22 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0</v>
+      <c r="H45" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I45" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J45" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2053,18 +2224,22 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
+      <c r="H46" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I46" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J46" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2074,18 +2249,22 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0</v>
+      <c r="H47" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I47" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J47" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2095,18 +2274,22 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="E48" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" s="14" t="str">
+      <c r="H48" s="18">
         <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <v>0</v>
+      </c>
+      <c r="I48" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J48" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2116,18 +2299,22 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
+      <c r="H49" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I49" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J49" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2137,17 +2324,21 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
+      <c r="H50" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I50" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J50" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -2158,18 +2349,22 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
+      <c r="H51" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I51" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J51" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2179,18 +2374,22 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
+      <c r="H52" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I52" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J52" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2200,17 +2399,21 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>3</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
+      <c r="H53" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I53" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J53" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -2221,18 +2424,22 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2">
+        <v>5</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
+      <c r="H54" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I54" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J54" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2242,18 +2449,22 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="14" t="str">
+      <c r="H55" s="18">
         <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <v>0</v>
+      </c>
+      <c r="I55" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J55" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2263,18 +2474,22 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2">
+        <v>6</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
+      <c r="H56" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I56" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J56" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2284,18 +2499,22 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2">
+        <v>5</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
-        <v>0</v>
+      <c r="H57" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I57" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J57" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2305,17 +2524,21 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2">
+        <v>4</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>0</v>
+      <c r="H58" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I58" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J58" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -2326,17 +2549,21 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2">
+        <v>4</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
+      <c r="H59" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I59" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J59" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -2347,18 +2574,22 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2">
+        <v>8</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
+      <c r="H60" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I60" s="18">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="J60" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2368,18 +2599,22 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2">
+        <v>7</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0</v>
+      <c r="H61" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I61" s="18">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="J61" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2389,18 +2624,22 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0</v>
-      </c>
-      <c r="J62" s="14" t="str">
+      <c r="H62" s="18">
         <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <v>0</v>
+      </c>
+      <c r="I62" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J62" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2410,18 +2649,22 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" s="14" t="str">
+      <c r="H63" s="18">
         <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <v>0</v>
+      </c>
+      <c r="I63" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J63" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2431,17 +2674,21 @@
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="2">
+        <v>3</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2">
-        <v>0</v>
+      <c r="H64" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I64" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J64" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -2452,17 +2699,21 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="2">
+        <v>4</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2">
-        <v>0</v>
+      <c r="H65" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I65" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="J65" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -2473,17 +2724,21 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="2">
+        <v>3</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0</v>
+      <c r="H66" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I66" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J66" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -2494,17 +2749,21 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="2">
+        <v>3</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0</v>
+      <c r="H67" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I67" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J67" s="14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -2515,18 +2774,22 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="2">
+        <v>8</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2">
-        <v>0</v>
-      </c>
-      <c r="I68" s="2">
-        <v>0</v>
+      <c r="H68" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I68" s="18">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="J68" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="2"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2536,18 +2799,22 @@
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="E69" s="2">
+        <v>8</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2">
-        <v>0</v>
+      <c r="H69" s="18">
+        <f t="shared" ref="H69:H132" si="3">SUM(B69:G69)</f>
+        <v>8</v>
+      </c>
+      <c r="I69" s="18">
+        <f t="shared" ref="I69:I132" si="4">AVERAGE(B69:G69)</f>
+        <v>8</v>
       </c>
       <c r="J69" s="14" t="str">
-        <f t="shared" ref="J69:J132" si="1">IF(I69&lt;=4,"DESEABLE",IF(I69&lt;=7,"OPCIONAL",IF(I69&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
-        <v>DESEABLE</v>
+        <f t="shared" ref="J69:J132" si="5">IF(I69&lt;=4,"DESEABLE",IF(I69&lt;=7,"OPCIONAL",IF(I69&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2557,17 +2824,21 @@
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="2">
+        <v>4</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2">
-        <v>0</v>
+      <c r="H70" s="18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I70" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="J70" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -2578,18 +2849,22 @@
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="E71" s="2">
+        <v>7</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="2">
-        <v>0</v>
-      </c>
-      <c r="I71" s="2">
-        <v>0</v>
+      <c r="H71" s="18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I71" s="18">
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="J71" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2599,18 +2874,22 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="2">
+        <v>6</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="2">
-        <v>0</v>
-      </c>
-      <c r="I72" s="2">
-        <v>0</v>
+      <c r="H72" s="18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I72" s="18">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J72" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2620,18 +2899,22 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="2">
+        <v>6</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2">
-        <v>0</v>
+      <c r="H73" s="18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I73" s="18">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J73" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2641,18 +2924,22 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2">
+        <v>7</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2">
-        <v>0</v>
-      </c>
-      <c r="I74" s="2">
-        <v>0</v>
+      <c r="H74" s="18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I74" s="18">
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="J74" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2662,18 +2949,22 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="E75" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2">
-        <v>0</v>
-      </c>
-      <c r="J75" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H75" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J75" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2683,18 +2974,22 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="2">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2">
-        <v>0</v>
-      </c>
-      <c r="J76" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H76" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J76" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2704,18 +2999,22 @@
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="E77" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2">
-        <v>0</v>
-      </c>
-      <c r="J77" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H77" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J77" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2725,18 +3024,22 @@
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="E78" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="2">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2">
-        <v>0</v>
-      </c>
-      <c r="J78" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H78" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J78" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2746,18 +3049,22 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="E79" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="2">
-        <v>0</v>
-      </c>
-      <c r="I79" s="2">
-        <v>0</v>
-      </c>
-      <c r="J79" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H79" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J79" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2767,18 +3074,22 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="2">
+        <v>7</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="2">
-        <v>0</v>
-      </c>
-      <c r="I80" s="2">
-        <v>0</v>
+      <c r="H80" s="18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I80" s="18">
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="J80" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2788,18 +3099,22 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="2">
+        <v>7</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="2">
-        <v>0</v>
-      </c>
-      <c r="I81" s="2">
-        <v>0</v>
+      <c r="H81" s="18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I81" s="18">
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="J81" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2809,18 +3124,22 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="E82" s="2">
+        <v>8</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="2">
-        <v>0</v>
-      </c>
-      <c r="I82" s="2">
-        <v>0</v>
+      <c r="H82" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I82" s="18">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J82" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2830,18 +3149,22 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="E83" s="2">
+        <v>6</v>
+      </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="2">
-        <v>0</v>
-      </c>
-      <c r="I83" s="2">
-        <v>0</v>
+      <c r="H83" s="18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I83" s="18">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J83" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2851,18 +3174,22 @@
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="E84" s="2">
+        <v>5</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="2">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2">
-        <v>0</v>
+      <c r="H84" s="18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I84" s="18">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="J84" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2872,18 +3199,22 @@
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="E85" s="2">
+        <v>6</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="2">
-        <v>0</v>
-      </c>
-      <c r="I85" s="2">
-        <v>0</v>
+      <c r="H85" s="18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I85" s="18">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J85" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2893,18 +3224,22 @@
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="E86" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="2">
-        <v>0</v>
-      </c>
-      <c r="I86" s="2">
-        <v>0</v>
-      </c>
-      <c r="J86" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H86" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J86" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2914,18 +3249,22 @@
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="2">
+        <v>5</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="2">
-        <v>0</v>
-      </c>
-      <c r="I87" s="2">
-        <v>0</v>
+      <c r="H87" s="18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I87" s="18">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="J87" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2935,18 +3274,22 @@
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="E88" s="2">
+        <v>8</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="2">
-        <v>0</v>
-      </c>
-      <c r="I88" s="2">
-        <v>0</v>
+      <c r="H88" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I88" s="18">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J88" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2956,18 +3299,22 @@
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="E89" s="2">
+        <v>8</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="2">
-        <v>0</v>
-      </c>
-      <c r="I89" s="2">
-        <v>0</v>
+      <c r="H89" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I89" s="18">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J89" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2977,18 +3324,22 @@
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="E90" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="2">
-        <v>0</v>
-      </c>
-      <c r="I90" s="2">
-        <v>0</v>
-      </c>
-      <c r="J90" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H90" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J90" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2998,18 +3349,22 @@
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="2">
+        <v>6</v>
+      </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="2">
-        <v>0</v>
-      </c>
-      <c r="I91" s="2">
-        <v>0</v>
+      <c r="H91" s="18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I91" s="18">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J91" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3019,18 +3374,22 @@
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="2">
+        <v>7</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="2">
-        <v>0</v>
-      </c>
-      <c r="I92" s="2">
-        <v>0</v>
+      <c r="H92" s="18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I92" s="18">
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="J92" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3040,18 +3399,22 @@
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="E93" s="2">
+        <v>5</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="2">
-        <v>0</v>
-      </c>
-      <c r="I93" s="2">
-        <v>0</v>
+      <c r="H93" s="18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I93" s="18">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="J93" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3061,18 +3424,22 @@
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="2">
+        <v>5</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="2">
-        <v>0</v>
-      </c>
-      <c r="I94" s="2">
-        <v>0</v>
+      <c r="H94" s="18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I94" s="18">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="J94" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3082,18 +3449,22 @@
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="E95" s="2">
+        <v>5</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="2">
-        <v>0</v>
-      </c>
-      <c r="I95" s="2">
-        <v>0</v>
+      <c r="H95" s="18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I95" s="18">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="J95" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3103,18 +3474,22 @@
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="2">
+        <v>7</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="2">
-        <v>0</v>
-      </c>
-      <c r="I96" s="2">
-        <v>0</v>
+      <c r="H96" s="18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I96" s="18">
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="J96" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3124,18 +3499,22 @@
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2">
+        <v>6</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="2">
-        <v>0</v>
-      </c>
-      <c r="I97" s="2">
-        <v>0</v>
+      <c r="H97" s="18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I97" s="18">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J97" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3145,18 +3524,22 @@
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="E98" s="2">
+        <v>5</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="2">
-        <v>0</v>
-      </c>
-      <c r="I98" s="2">
-        <v>0</v>
+      <c r="H98" s="18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I98" s="18">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="J98" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3166,18 +3549,22 @@
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="E99" s="2">
+        <v>5</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="2">
-        <v>0</v>
-      </c>
-      <c r="I99" s="2">
-        <v>0</v>
+      <c r="H99" s="18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I99" s="18">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="J99" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3187,18 +3574,22 @@
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="E100" s="2">
+        <v>8</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="2">
-        <v>0</v>
-      </c>
-      <c r="I100" s="2">
-        <v>0</v>
+      <c r="H100" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I100" s="18">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J100" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3208,18 +3599,22 @@
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="E101" s="2">
+        <v>5</v>
+      </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="2">
-        <v>0</v>
-      </c>
-      <c r="I101" s="2">
-        <v>0</v>
+      <c r="H101" s="18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I101" s="18">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="J101" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3229,17 +3624,21 @@
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="E102" s="2">
+        <v>3</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="2">
-        <v>0</v>
-      </c>
-      <c r="I102" s="2">
-        <v>0</v>
+      <c r="H102" s="18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I102" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="J102" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -3250,18 +3649,22 @@
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="E103" s="2">
+        <v>5</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="2">
-        <v>0</v>
-      </c>
-      <c r="I103" s="2">
-        <v>0</v>
+      <c r="H103" s="18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I103" s="18">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="J103" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3271,18 +3674,22 @@
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="E104" s="2">
+        <v>7</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="2">
-        <v>0</v>
-      </c>
-      <c r="I104" s="2">
-        <v>0</v>
+      <c r="H104" s="18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I104" s="18">
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="J104" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3292,18 +3699,22 @@
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="E105" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="2">
-        <v>0</v>
-      </c>
-      <c r="I105" s="2">
-        <v>0</v>
-      </c>
-      <c r="J105" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H105" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J105" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3313,18 +3724,22 @@
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="E106" s="2">
+        <v>6</v>
+      </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="2">
-        <v>0</v>
-      </c>
-      <c r="I106" s="2">
-        <v>0</v>
+      <c r="H106" s="18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I106" s="18">
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J106" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3334,18 +3749,22 @@
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
+      <c r="E107" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="2">
-        <v>0</v>
-      </c>
-      <c r="I107" s="2">
-        <v>0</v>
-      </c>
-      <c r="J107" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H107" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J107" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3355,18 +3774,22 @@
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+      <c r="E108" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="2">
-        <v>0</v>
-      </c>
-      <c r="I108" s="2">
-        <v>0</v>
-      </c>
-      <c r="J108" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H108" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J108" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3376,18 +3799,22 @@
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
+      <c r="E109" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="2">
-        <v>0</v>
-      </c>
-      <c r="I109" s="2">
-        <v>0</v>
-      </c>
-      <c r="J109" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H109" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J109" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3397,18 +3824,22 @@
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+      <c r="E110" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="2">
-        <v>0</v>
-      </c>
-      <c r="I110" s="2">
-        <v>0</v>
-      </c>
-      <c r="J110" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H110" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J110" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3418,18 +3849,22 @@
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
+      <c r="E111" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="2">
-        <v>0</v>
-      </c>
-      <c r="I111" s="2">
-        <v>0</v>
-      </c>
-      <c r="J111" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H111" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J111" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3439,18 +3874,22 @@
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
+      <c r="E112" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-      <c r="H112" s="2">
-        <v>0</v>
-      </c>
-      <c r="I112" s="2">
-        <v>0</v>
-      </c>
-      <c r="J112" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H112" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J112" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3460,18 +3899,22 @@
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
+      <c r="E113" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="2">
-        <v>0</v>
-      </c>
-      <c r="I113" s="2">
-        <v>0</v>
-      </c>
-      <c r="J113" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H113" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J113" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3481,18 +3924,22 @@
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="2">
-        <v>0</v>
-      </c>
-      <c r="I114" s="2">
-        <v>0</v>
-      </c>
-      <c r="J114" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H114" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J114" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3502,18 +3949,22 @@
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
+      <c r="E115" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="2">
-        <v>0</v>
-      </c>
-      <c r="I115" s="2">
-        <v>0</v>
-      </c>
-      <c r="J115" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H115" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J115" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3523,18 +3974,22 @@
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="E116" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="2">
-        <v>0</v>
-      </c>
-      <c r="I116" s="2">
-        <v>0</v>
-      </c>
-      <c r="J116" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H116" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J116" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3544,18 +3999,22 @@
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
+      <c r="E117" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="2">
-        <v>0</v>
-      </c>
-      <c r="I117" s="2">
-        <v>0</v>
-      </c>
-      <c r="J117" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H117" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J117" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3565,18 +4024,22 @@
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
+      <c r="E118" s="2">
+        <v>8</v>
+      </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="2">
-        <v>0</v>
-      </c>
-      <c r="I118" s="2">
-        <v>0</v>
+      <c r="H118" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I118" s="18">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J118" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3586,18 +4049,22 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
+      <c r="E119" s="1">
+        <v>8</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="2">
-        <v>0</v>
-      </c>
-      <c r="I119" s="2">
-        <v>0</v>
+      <c r="H119" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I119" s="18">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J119" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3607,18 +4074,22 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1">
+        <v>8</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="2">
-        <v>0</v>
-      </c>
-      <c r="I120" s="2">
-        <v>0</v>
+      <c r="H120" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I120" s="18">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J120" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3628,18 +4099,22 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
+      <c r="E121" s="1">
+        <v>8</v>
+      </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="2">
-        <v>0</v>
-      </c>
-      <c r="I121" s="2">
-        <v>0</v>
+      <c r="H121" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I121" s="18">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J121" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3649,18 +4124,22 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="E122" s="1">
+        <v>9</v>
+      </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="2">
-        <v>0</v>
-      </c>
-      <c r="I122" s="2">
-        <v>0</v>
+      <c r="H122" s="18">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I122" s="18">
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="J122" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>CLAVE</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3670,17 +4149,21 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="E123" s="1">
+        <v>4</v>
+      </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
-      <c r="H123" s="2">
-        <v>0</v>
-      </c>
-      <c r="I123" s="2">
-        <v>0</v>
+      <c r="H123" s="18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I123" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="J123" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>DESEABLE</v>
       </c>
     </row>
@@ -3691,18 +4174,22 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="E124" s="21" t="s">
+        <v>152</v>
+      </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="2">
-        <v>0</v>
-      </c>
-      <c r="I124" s="2">
-        <v>0</v>
-      </c>
-      <c r="J124" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H124" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J124" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3712,18 +4199,22 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="E125" s="1">
+        <v>8</v>
+      </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="2">
-        <v>0</v>
-      </c>
-      <c r="I125" s="2">
-        <v>0</v>
+      <c r="H125" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I125" s="18">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J125" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3733,18 +4224,22 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+      <c r="E126" s="1">
+        <v>8</v>
+      </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="2">
-        <v>0</v>
-      </c>
-      <c r="I126" s="2">
-        <v>0</v>
+      <c r="H126" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I126" s="18">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J126" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3754,18 +4249,22 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
+      <c r="E127" s="21" t="s">
+        <v>152</v>
+      </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="2">
-        <v>0</v>
-      </c>
-      <c r="I127" s="2">
-        <v>0</v>
-      </c>
-      <c r="J127" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H127" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J127" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3775,18 +4274,22 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
+      <c r="E128" s="21" t="s">
+        <v>152</v>
+      </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="2">
-        <v>0</v>
-      </c>
-      <c r="I128" s="2">
-        <v>0</v>
-      </c>
-      <c r="J128" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H128" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J128" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3796,18 +4299,22 @@
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+      <c r="E129" s="1">
+        <v>8</v>
+      </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="2">
-        <v>0</v>
-      </c>
-      <c r="I129" s="2">
-        <v>0</v>
+      <c r="H129" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I129" s="18">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J129" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+        <f t="shared" si="5"/>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3818,15 +4325,17 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="2">
-        <v>0</v>
-      </c>
-      <c r="I130" s="2">
-        <v>0</v>
-      </c>
-      <c r="J130" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H130" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J130" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3837,15 +4346,17 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
-      <c r="H131" s="2">
-        <v>0</v>
-      </c>
-      <c r="I131" s="2">
-        <v>0</v>
-      </c>
-      <c r="J131" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H131" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I131" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J131" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3856,15 +4367,17 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="2">
-        <v>0</v>
-      </c>
-      <c r="I132" s="2">
-        <v>0</v>
-      </c>
-      <c r="J132" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>DESEABLE</v>
+      <c r="H132" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I132" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J132" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3875,15 +4388,17 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="H133" s="2">
-        <v>0</v>
-      </c>
-      <c r="I133" s="2">
-        <v>0</v>
-      </c>
-      <c r="J133" s="14" t="str">
-        <f t="shared" ref="J133:J139" si="2">IF(I133&lt;=4,"DESEABLE",IF(I133&lt;=7,"OPCIONAL",IF(I133&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
-        <v>DESEABLE</v>
+      <c r="H133" s="18">
+        <f t="shared" ref="H133:H139" si="6">SUM(B133:G133)</f>
+        <v>0</v>
+      </c>
+      <c r="I133" s="18" t="e">
+        <f t="shared" ref="I133:I139" si="7">AVERAGE(B133:G133)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J133" s="14" t="e">
+        <f t="shared" ref="J133:J139" si="8">IF(I133&lt;=4,"DESEABLE",IF(I133&lt;=7,"OPCIONAL",IF(I133&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3894,15 +4409,17 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="2">
-        <v>0</v>
-      </c>
-      <c r="I134" s="2">
-        <v>0</v>
-      </c>
-      <c r="J134" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+      <c r="H134" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I134" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J134" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3913,15 +4430,17 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="2">
-        <v>0</v>
-      </c>
-      <c r="I135" s="2">
-        <v>0</v>
-      </c>
-      <c r="J135" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+      <c r="H135" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I135" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J135" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3932,15 +4451,17 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="2">
-        <v>0</v>
-      </c>
-      <c r="I136" s="2">
-        <v>0</v>
-      </c>
-      <c r="J136" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+      <c r="H136" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I136" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J136" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3951,15 +4472,17 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="2">
-        <v>0</v>
-      </c>
-      <c r="I137" s="2">
-        <v>0</v>
-      </c>
-      <c r="J137" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+      <c r="H137" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I137" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J137" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3970,15 +4493,17 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="2">
-        <v>0</v>
-      </c>
-      <c r="I138" s="2">
-        <v>0</v>
-      </c>
-      <c r="J138" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+      <c r="H138" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I138" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J138" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3989,15 +4514,17 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="2">
-        <v>0</v>
-      </c>
-      <c r="I139" s="2">
-        <v>0</v>
-      </c>
-      <c r="J139" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+      <c r="H139" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I139" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J139" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.75" thickTop="1"/>
@@ -4015,7 +4542,7 @@
   <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4043,18 +4570,18 @@
       <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="17" t="s">
@@ -6391,7 +6918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -6406,17 +6933,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" thickTop="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="20" t="s">

--- a/trunk/SRS ENTREGA/ENCUESTAS.xlsx
+++ b/trunk/SRS ENTREGA/ENCUESTAS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="7740"/>
@@ -11,12 +11,12 @@
     <sheet name="ALCANCE DE REQUERIMIENTOS" sheetId="2" r:id="rId2"/>
     <sheet name="ENCUESTA COSTOS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="154">
   <si>
     <t>PRIORIDAD DE LOS REQUERIMIENTOS (1-10)</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1142,7 +1145,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="18" t="s">
         <v>152</v>
@@ -1167,7 +1172,9 @@
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>9</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
         <v>8</v>
@@ -1176,11 +1183,11 @@
       <c r="G5" s="2"/>
       <c r="H5" s="18">
         <f t="shared" ref="H5:H68" si="0">SUM(B5:G5)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" ref="I5:I68" si="1">AVERAGE(B5:G5)</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J5" s="14" t="str">
         <f t="shared" ref="J5:J68" si="2">IF(I5&lt;=4,"DESEABLE",IF(I5&lt;=7,"OPCIONAL",IF(I5&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
@@ -1192,7 +1199,9 @@
         <v>12</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>2</v>
@@ -1201,11 +1210,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J6" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1223,7 +1232,9 @@
         <v>13</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>3</v>
@@ -1232,11 +1243,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J7" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1254,7 +1265,9 @@
         <v>14</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>9</v>
@@ -1263,15 +1276,15 @@
       <c r="G8" s="2"/>
       <c r="H8" s="18">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I8" s="18">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J8" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CLAVE</v>
+        <v>OBLIGATORIO</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>143</v>
@@ -1285,7 +1298,9 @@
         <v>15</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>9</v>
@@ -1294,15 +1309,15 @@
       <c r="G9" s="2"/>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I9" s="18">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J9" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CLAVE</v>
+        <v>OBLIGATORIO</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>145</v>
@@ -1316,7 +1331,9 @@
         <v>126</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <v>7</v>
@@ -1325,15 +1342,15 @@
       <c r="G10" s="2"/>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I10" s="18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>OPCIONAL</v>
+        <v>OBLIGATORIO</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>147</v>
@@ -1347,7 +1364,9 @@
         <v>16</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>9</v>
@@ -1356,15 +1375,15 @@
       <c r="G11" s="2"/>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J11" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CLAVE</v>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,7 +1391,9 @@
         <v>17</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <v>10</v>
@@ -1381,7 +1402,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="1"/>
@@ -1397,7 +1418,9 @@
         <v>18</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="18" t="s">
         <v>152</v>
@@ -1422,7 +1445,9 @@
         <v>19</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
         <v>10</v>
@@ -1431,7 +1456,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I14" s="18">
         <f t="shared" si="1"/>
@@ -1447,7 +1472,9 @@
         <v>127</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
         <v>7</v>
@@ -1456,15 +1483,15 @@
       <c r="G15" s="2"/>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>OPCIONAL</v>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1499,9 @@
         <v>128</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
         <v>7</v>
@@ -1481,11 +1510,11 @@
       <c r="G16" s="2"/>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I16" s="18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J16" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1497,7 +1526,9 @@
         <v>20</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
         <v>7</v>
@@ -1506,15 +1537,15 @@
       <c r="G17" s="2"/>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I17" s="18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J17" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>OPCIONAL</v>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1553,9 @@
         <v>21</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <v>7</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
         <v>5</v>
@@ -1531,11 +1564,11 @@
       <c r="G18" s="2"/>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I18" s="18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1547,7 +1580,9 @@
         <v>22</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2">
         <v>6</v>
@@ -1556,7 +1591,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="1"/>
@@ -1572,7 +1607,9 @@
         <v>23</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
         <v>6</v>
@@ -1581,7 +1618,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I20" s="18">
         <f t="shared" si="1"/>
@@ -1597,7 +1634,9 @@
         <v>24</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>7</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
         <v>6</v>
@@ -1606,11 +1645,11 @@
       <c r="G21" s="2"/>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I21" s="18">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J21" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1622,7 +1661,9 @@
         <v>25</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
         <v>6</v>
@@ -1631,7 +1672,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I22" s="18">
         <f t="shared" si="1"/>
@@ -1647,7 +1688,9 @@
         <v>26</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="18" t="s">
         <v>152</v>
@@ -1672,7 +1715,9 @@
         <v>27</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2">
+        <v>9</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
         <v>8</v>
@@ -1681,11 +1726,11 @@
       <c r="G24" s="2"/>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J24" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1697,7 +1742,9 @@
         <v>28</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>9</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
         <v>8</v>
@@ -1706,11 +1753,11 @@
       <c r="G25" s="2"/>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I25" s="18">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J25" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1722,7 +1769,9 @@
         <v>29</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="18" t="s">
         <v>152</v>
@@ -1747,7 +1796,9 @@
         <v>30</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2">
         <v>4</v>
@@ -1756,11 +1807,11 @@
       <c r="G27" s="2"/>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I27" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J27" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1772,7 +1823,9 @@
         <v>31</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
         <v>2</v>
@@ -1781,7 +1834,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" si="1"/>
@@ -1797,7 +1850,9 @@
         <v>32</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2">
+        <v>7</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
         <v>4</v>
@@ -1806,15 +1861,15 @@
       <c r="G29" s="2"/>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J29" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1822,7 +1877,9 @@
         <v>129</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2">
         <v>3</v>
@@ -1831,11 +1888,11 @@
       <c r="G30" s="2"/>
       <c r="H30" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I30" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J30" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1847,7 +1904,9 @@
         <v>33</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
         <v>4</v>
@@ -1856,15 +1915,15 @@
       <c r="G31" s="2"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I31" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J31" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1872,7 +1931,9 @@
         <v>34</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
         <v>4</v>
@@ -1881,15 +1942,15 @@
       <c r="G32" s="2"/>
       <c r="H32" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I32" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1897,7 +1958,9 @@
         <v>35</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2">
         <v>3</v>
@@ -1906,7 +1969,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I33" s="18">
         <f t="shared" si="1"/>
@@ -1922,7 +1985,9 @@
         <v>36</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2">
         <v>2</v>
@@ -1931,11 +1996,11 @@
       <c r="G34" s="2"/>
       <c r="H34" s="18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I34" s="18">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1947,7 +2012,9 @@
         <v>37</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2">
         <v>3</v>
@@ -1956,11 +2023,11 @@
       <c r="G35" s="2"/>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I35" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1972,7 +2039,9 @@
         <v>38</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2">
+        <v>5</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
         <v>3</v>
@@ -1981,11 +2050,11 @@
       <c r="G36" s="2"/>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I36" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1997,7 +2066,9 @@
         <v>39</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2">
+        <v>5</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2">
         <v>3</v>
@@ -2006,11 +2077,11 @@
       <c r="G37" s="2"/>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I37" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2022,7 +2093,9 @@
         <v>130</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2">
         <v>4</v>
@@ -2031,15 +2104,15 @@
       <c r="G38" s="2"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I38" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J38" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2047,7 +2120,9 @@
         <v>40</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2">
+        <v>6</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2">
         <v>3</v>
@@ -2056,15 +2131,15 @@
       <c r="G39" s="2"/>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I39" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J39" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2072,7 +2147,9 @@
         <v>41</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2">
         <v>3</v>
@@ -2081,15 +2158,15 @@
       <c r="G40" s="2"/>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I40" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2097,7 +2174,9 @@
         <v>42</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2">
+        <v>4</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2">
         <v>4</v>
@@ -2106,7 +2185,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I41" s="18">
         <f t="shared" si="1"/>
@@ -2122,7 +2201,9 @@
         <v>43</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
         <v>6</v>
@@ -2131,11 +2212,11 @@
       <c r="G42" s="2"/>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I42" s="18">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J42" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2147,7 +2228,9 @@
         <v>44</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="18" t="s">
         <v>152</v>
@@ -2172,7 +2255,9 @@
         <v>45</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
         <v>5</v>
@@ -2181,7 +2266,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I44" s="18">
         <f t="shared" si="1"/>
@@ -2197,7 +2282,9 @@
         <v>46</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
         <v>5</v>
@@ -2206,7 +2293,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I45" s="18">
         <f t="shared" si="1"/>
@@ -2222,7 +2309,9 @@
         <v>47</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
         <v>5</v>
@@ -2231,7 +2320,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I46" s="18">
         <f t="shared" si="1"/>
@@ -2247,7 +2336,9 @@
         <v>48</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2">
         <v>5</v>
@@ -2256,7 +2347,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I47" s="18">
         <f t="shared" si="1"/>
@@ -2272,7 +2363,9 @@
         <v>49</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="18" t="s">
         <v>152</v>
@@ -2297,7 +2390,9 @@
         <v>50</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2">
         <v>5</v>
@@ -2306,11 +2401,11 @@
       <c r="G49" s="2"/>
       <c r="H49" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I49" s="18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J49" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2322,7 +2417,9 @@
         <v>51</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2">
+        <v>6</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2">
         <v>4</v>
@@ -2331,15 +2428,15 @@
       <c r="G50" s="2"/>
       <c r="H50" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I50" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J50" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2347,7 +2444,9 @@
         <v>52</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2">
+        <v>6</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2">
         <v>5</v>
@@ -2356,11 +2455,11 @@
       <c r="G51" s="2"/>
       <c r="H51" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I51" s="18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J51" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2372,7 +2471,9 @@
         <v>53</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2">
+        <v>6</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2">
         <v>5</v>
@@ -2381,11 +2482,11 @@
       <c r="G52" s="2"/>
       <c r="H52" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I52" s="18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J52" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2397,7 +2498,9 @@
         <v>54</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2">
         <v>3</v>
@@ -2406,11 +2509,11 @@
       <c r="G53" s="2"/>
       <c r="H53" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I53" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J53" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2422,7 +2525,9 @@
         <v>55</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2">
+        <v>4</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2">
         <v>5</v>
@@ -2431,11 +2536,11 @@
       <c r="G54" s="2"/>
       <c r="H54" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I54" s="18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J54" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2447,7 +2552,9 @@
         <v>56</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="18" t="s">
         <v>152</v>
@@ -2472,7 +2579,9 @@
         <v>57</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2">
         <v>6</v>
@@ -2481,11 +2590,11 @@
       <c r="G56" s="2"/>
       <c r="H56" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I56" s="18">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J56" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2497,7 +2606,9 @@
         <v>58</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2">
         <v>5</v>
@@ -2506,15 +2617,15 @@
       <c r="G57" s="2"/>
       <c r="H57" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I57" s="18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J57" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>OPCIONAL</v>
+        <v>DESEABLE</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2522,7 +2633,9 @@
         <v>59</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2">
+        <v>3</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2">
         <v>4</v>
@@ -2531,11 +2644,11 @@
       <c r="G58" s="2"/>
       <c r="H58" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I58" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J58" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2547,7 +2660,9 @@
         <v>60</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2">
+        <v>4</v>
+      </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2">
         <v>4</v>
@@ -2556,7 +2671,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I59" s="18">
         <f t="shared" si="1"/>
@@ -2572,7 +2687,9 @@
         <v>131</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2">
+        <v>7</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2">
         <v>8</v>
@@ -2581,11 +2698,11 @@
       <c r="G60" s="2"/>
       <c r="H60" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I60" s="18">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J60" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2597,7 +2714,9 @@
         <v>61</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2">
+        <v>7</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2">
         <v>7</v>
@@ -2606,7 +2725,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I61" s="18">
         <f t="shared" si="1"/>
@@ -2622,7 +2741,9 @@
         <v>62</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="18" t="s">
         <v>152</v>
@@ -2647,7 +2768,9 @@
         <v>63</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="18" t="s">
         <v>152</v>
@@ -2672,7 +2795,9 @@
         <v>64</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2">
         <v>3</v>
@@ -2681,11 +2806,11 @@
       <c r="G64" s="2"/>
       <c r="H64" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I64" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J64" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2697,7 +2822,9 @@
         <v>132</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2">
         <v>4</v>
@@ -2706,15 +2833,15 @@
       <c r="G65" s="2"/>
       <c r="H65" s="18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I65" s="18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J65" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>DESEABLE</v>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2722,7 +2849,9 @@
         <v>133</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2">
         <v>3</v>
@@ -2731,11 +2860,11 @@
       <c r="G66" s="2"/>
       <c r="H66" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I66" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J66" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2747,7 +2876,9 @@
         <v>65</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2">
         <v>3</v>
@@ -2756,11 +2887,11 @@
       <c r="G67" s="2"/>
       <c r="H67" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I67" s="18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J67" s="14" t="str">
         <f t="shared" si="2"/>
@@ -2772,7 +2903,9 @@
         <v>66</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2">
+        <v>10</v>
+      </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2">
         <v>8</v>
@@ -2781,15 +2914,15 @@
       <c r="G68" s="2"/>
       <c r="H68" s="18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I68" s="18">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J68" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>OBLIGATORIO</v>
+        <v>CLAVE</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2797,7 +2930,9 @@
         <v>67</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2">
+        <v>7</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2">
         <v>8</v>
@@ -2806,11 +2941,11 @@
       <c r="G69" s="2"/>
       <c r="H69" s="18">
         <f t="shared" ref="H69:H132" si="3">SUM(B69:G69)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I69" s="18">
         <f t="shared" ref="I69:I132" si="4">AVERAGE(B69:G69)</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J69" s="14" t="str">
         <f t="shared" ref="J69:J132" si="5">IF(I69&lt;=4,"DESEABLE",IF(I69&lt;=7,"OPCIONAL",IF(I69&lt;=8.5,"OBLIGATORIO","CLAVE")))</f>
@@ -2822,7 +2957,9 @@
         <v>68</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="C70" s="2">
+        <v>5</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2">
         <v>4</v>
@@ -2831,15 +2968,15 @@
       <c r="G70" s="2"/>
       <c r="H70" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I70" s="18">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J70" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>DESEABLE</v>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -2847,7 +2984,9 @@
         <v>69</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2">
+        <v>7</v>
+      </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2">
         <v>7</v>
@@ -2856,7 +2995,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I71" s="18">
         <f t="shared" si="4"/>
@@ -2872,7 +3011,9 @@
         <v>70</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="C72" s="2">
+        <v>8</v>
+      </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2">
         <v>6</v>
@@ -2881,11 +3022,11 @@
       <c r="G72" s="2"/>
       <c r="H72" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I72" s="18">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J72" s="14" t="str">
         <f t="shared" si="5"/>
@@ -2897,7 +3038,9 @@
         <v>71</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2">
+        <v>6</v>
+      </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2">
         <v>6</v>
@@ -2906,7 +3049,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I73" s="18">
         <f t="shared" si="4"/>
@@ -2922,7 +3065,9 @@
         <v>72</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2">
+        <v>7</v>
+      </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2">
         <v>7</v>
@@ -2931,7 +3076,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I74" s="18">
         <f t="shared" si="4"/>
@@ -2947,7 +3092,9 @@
         <v>73</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="C75" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D75" s="2"/>
       <c r="E75" s="18" t="s">
         <v>152</v>
@@ -2972,7 +3119,9 @@
         <v>74</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="C76" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D76" s="2"/>
       <c r="E76" s="18" t="s">
         <v>152</v>
@@ -2997,7 +3146,9 @@
         <v>75</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D77" s="2"/>
       <c r="E77" s="18" t="s">
         <v>152</v>
@@ -3022,7 +3173,9 @@
         <v>76</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D78" s="2"/>
       <c r="E78" s="18" t="s">
         <v>152</v>
@@ -3047,7 +3200,9 @@
         <v>77</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D79" s="2"/>
       <c r="E79" s="18" t="s">
         <v>152</v>
@@ -3072,7 +3227,9 @@
         <v>78</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2">
+        <v>9</v>
+      </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2">
         <v>7</v>
@@ -3081,15 +3238,15 @@
       <c r="G80" s="2"/>
       <c r="H80" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I80" s="18">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J80" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>OPCIONAL</v>
+        <v>OBLIGATORIO</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3097,7 +3254,9 @@
         <v>79</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="C81" s="2">
+        <v>7</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2">
         <v>7</v>
@@ -3106,7 +3265,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I81" s="18">
         <f t="shared" si="4"/>
@@ -3122,7 +3281,9 @@
         <v>80</v>
       </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="C82" s="2">
+        <v>8</v>
+      </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2">
         <v>8</v>
@@ -3131,7 +3292,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I82" s="18">
         <f t="shared" si="4"/>
@@ -3147,7 +3308,9 @@
         <v>81</v>
       </c>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="C83" s="2">
+        <v>7</v>
+      </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2">
         <v>6</v>
@@ -3156,11 +3319,11 @@
       <c r="G83" s="2"/>
       <c r="H83" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I83" s="18">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J83" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3172,7 +3335,9 @@
         <v>82</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="C84" s="2">
+        <v>5</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2">
         <v>5</v>
@@ -3181,7 +3346,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I84" s="18">
         <f t="shared" si="4"/>
@@ -3197,7 +3362,9 @@
         <v>83</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="C85" s="2">
+        <v>6</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2">
         <v>6</v>
@@ -3206,7 +3373,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I85" s="18">
         <f t="shared" si="4"/>
@@ -3222,7 +3389,9 @@
         <v>84</v>
       </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="C86" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D86" s="2"/>
       <c r="E86" s="18" t="s">
         <v>152</v>
@@ -3247,7 +3416,9 @@
         <v>85</v>
       </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="C87" s="2">
+        <v>7</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2">
         <v>5</v>
@@ -3256,11 +3427,11 @@
       <c r="G87" s="2"/>
       <c r="H87" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I87" s="18">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J87" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3272,7 +3443,9 @@
         <v>86</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2">
+        <v>7</v>
+      </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2">
         <v>8</v>
@@ -3281,11 +3454,11 @@
       <c r="G88" s="2"/>
       <c r="H88" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I88" s="18">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J88" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3297,7 +3470,9 @@
         <v>87</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="C89" s="2">
+        <v>7</v>
+      </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2">
         <v>8</v>
@@ -3306,11 +3481,11 @@
       <c r="G89" s="2"/>
       <c r="H89" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I89" s="18">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J89" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3322,7 +3497,9 @@
         <v>88</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="C90" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D90" s="2"/>
       <c r="E90" s="18" t="s">
         <v>152</v>
@@ -3347,7 +3524,9 @@
         <v>89</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="C91" s="2">
+        <v>8</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2">
         <v>6</v>
@@ -3356,11 +3535,11 @@
       <c r="G91" s="2"/>
       <c r="H91" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I91" s="18">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J91" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3372,7 +3551,9 @@
         <v>134</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="C92" s="2">
+        <v>7</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2">
         <v>7</v>
@@ -3381,7 +3562,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I92" s="18">
         <f t="shared" si="4"/>
@@ -3397,7 +3578,9 @@
         <v>90</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="C93" s="2">
+        <v>4</v>
+      </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2">
         <v>5</v>
@@ -3406,11 +3589,11 @@
       <c r="G93" s="2"/>
       <c r="H93" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I93" s="18">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J93" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3422,7 +3605,9 @@
         <v>91</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="C94" s="2">
+        <v>4</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2">
         <v>5</v>
@@ -3431,11 +3616,11 @@
       <c r="G94" s="2"/>
       <c r="H94" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I94" s="18">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J94" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3447,7 +3632,9 @@
         <v>92</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="C95" s="2">
+        <v>4</v>
+      </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2">
         <v>5</v>
@@ -3456,11 +3643,11 @@
       <c r="G95" s="2"/>
       <c r="H95" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I95" s="18">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J95" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3472,7 +3659,9 @@
         <v>93</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="C96" s="2">
+        <v>6</v>
+      </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2">
         <v>7</v>
@@ -3481,11 +3670,11 @@
       <c r="G96" s="2"/>
       <c r="H96" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I96" s="18">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J96" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3497,7 +3686,9 @@
         <v>94</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="C97" s="2">
+        <v>4</v>
+      </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2">
         <v>6</v>
@@ -3506,11 +3697,11 @@
       <c r="G97" s="2"/>
       <c r="H97" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I97" s="18">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J97" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3522,7 +3713,9 @@
         <v>95</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="C98" s="2">
+        <v>4</v>
+      </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2">
         <v>5</v>
@@ -3531,11 +3724,11 @@
       <c r="G98" s="2"/>
       <c r="H98" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I98" s="18">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J98" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3547,7 +3740,9 @@
         <v>96</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="C99" s="2">
+        <v>5</v>
+      </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2">
         <v>5</v>
@@ -3556,7 +3751,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I99" s="18">
         <f t="shared" si="4"/>
@@ -3572,7 +3767,9 @@
         <v>97</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="C100" s="2">
+        <v>4</v>
+      </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2">
         <v>8</v>
@@ -3581,15 +3778,15 @@
       <c r="G100" s="2"/>
       <c r="H100" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I100" s="18">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J100" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>OBLIGATORIO</v>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -3597,7 +3794,9 @@
         <v>98</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="C101" s="2">
+        <v>4</v>
+      </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2">
         <v>5</v>
@@ -3606,11 +3805,11 @@
       <c r="G101" s="2"/>
       <c r="H101" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I101" s="18">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J101" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3622,7 +3821,9 @@
         <v>99</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="C102" s="2">
+        <v>4</v>
+      </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2">
         <v>3</v>
@@ -3631,11 +3832,11 @@
       <c r="G102" s="2"/>
       <c r="H102" s="18">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I102" s="18">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J102" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3647,7 +3848,9 @@
         <v>100</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="C103" s="2">
+        <v>7</v>
+      </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2">
         <v>5</v>
@@ -3656,11 +3859,11 @@
       <c r="G103" s="2"/>
       <c r="H103" s="18">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I103" s="18">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J103" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3672,7 +3875,9 @@
         <v>101</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="C104" s="2">
+        <v>6</v>
+      </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2">
         <v>7</v>
@@ -3681,11 +3886,11 @@
       <c r="G104" s="2"/>
       <c r="H104" s="18">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I104" s="18">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J104" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3697,7 +3902,9 @@
         <v>102</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="C105" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D105" s="2"/>
       <c r="E105" s="18" t="s">
         <v>152</v>
@@ -3722,7 +3929,9 @@
         <v>103</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="C106" s="2">
+        <v>4</v>
+      </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2">
         <v>6</v>
@@ -3731,11 +3940,11 @@
       <c r="G106" s="2"/>
       <c r="H106" s="18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I106" s="18">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J106" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3747,7 +3956,9 @@
         <v>104</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="C107" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D107" s="2"/>
       <c r="E107" s="18" t="s">
         <v>152</v>
@@ -3772,7 +3983,9 @@
         <v>105</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="C108" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D108" s="2"/>
       <c r="E108" s="18" t="s">
         <v>152</v>
@@ -3797,7 +4010,9 @@
         <v>106</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="C109" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D109" s="2"/>
       <c r="E109" s="18" t="s">
         <v>152</v>
@@ -3822,7 +4037,9 @@
         <v>107</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="C110" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D110" s="2"/>
       <c r="E110" s="18" t="s">
         <v>152</v>
@@ -3847,7 +4064,9 @@
         <v>108</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="C111" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D111" s="2"/>
       <c r="E111" s="18" t="s">
         <v>152</v>
@@ -3872,7 +4091,9 @@
         <v>109</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="C112" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D112" s="2"/>
       <c r="E112" s="18" t="s">
         <v>152</v>
@@ -3897,7 +4118,9 @@
         <v>110</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="C113" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D113" s="2"/>
       <c r="E113" s="18" t="s">
         <v>152</v>
@@ -3922,7 +4145,9 @@
         <v>111</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="C114" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D114" s="2"/>
       <c r="E114" s="18" t="s">
         <v>152</v>
@@ -3947,7 +4172,9 @@
         <v>112</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="C115" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D115" s="2"/>
       <c r="E115" s="18" t="s">
         <v>152</v>
@@ -3972,7 +4199,9 @@
         <v>113</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="C116" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D116" s="2"/>
       <c r="E116" s="18" t="s">
         <v>152</v>
@@ -3997,7 +4226,9 @@
         <v>114</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="C117" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D117" s="2"/>
       <c r="E117" s="18" t="s">
         <v>152</v>
@@ -4022,7 +4253,9 @@
         <v>115</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="C118" s="2">
+        <v>7</v>
+      </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2">
         <v>8</v>
@@ -4031,11 +4264,11 @@
       <c r="G118" s="2"/>
       <c r="H118" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I118" s="18">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J118" s="14" t="str">
         <f t="shared" si="5"/>
@@ -4047,7 +4280,9 @@
         <v>116</v>
       </c>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="C119" s="1">
+        <v>8</v>
+      </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1">
         <v>8</v>
@@ -4056,7 +4291,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I119" s="18">
         <f t="shared" si="4"/>
@@ -4072,7 +4307,9 @@
         <v>117</v>
       </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="C120" s="1">
+        <v>8</v>
+      </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1">
         <v>8</v>
@@ -4081,7 +4318,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I120" s="18">
         <f t="shared" si="4"/>
@@ -4097,7 +4334,9 @@
         <v>118</v>
       </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
+      <c r="C121" s="1">
+        <v>8</v>
+      </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1">
         <v>8</v>
@@ -4106,7 +4345,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I121" s="18">
         <f t="shared" si="4"/>
@@ -4122,7 +4361,9 @@
         <v>135</v>
       </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="C122" s="1">
+        <v>9</v>
+      </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1">
         <v>9</v>
@@ -4131,7 +4372,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="18">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I122" s="18">
         <f t="shared" si="4"/>
@@ -4147,7 +4388,9 @@
         <v>119</v>
       </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+      <c r="C123" s="1">
+        <v>5</v>
+      </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1">
         <v>4</v>
@@ -4156,15 +4399,15 @@
       <c r="G123" s="1"/>
       <c r="H123" s="18">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I123" s="18">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J123" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>DESEABLE</v>
+        <v>OPCIONAL</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -4172,7 +4415,9 @@
         <v>120</v>
       </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="C124" s="21" t="s">
+        <v>152</v>
+      </c>
       <c r="D124" s="1"/>
       <c r="E124" s="21" t="s">
         <v>152</v>
@@ -4197,7 +4442,9 @@
         <v>121</v>
       </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+      <c r="C125" s="1">
+        <v>8</v>
+      </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1">
         <v>8</v>
@@ -4206,7 +4453,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I125" s="18">
         <f t="shared" si="4"/>
@@ -4222,7 +4469,9 @@
         <v>122</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="C126" s="1">
+        <v>8</v>
+      </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1">
         <v>8</v>
@@ -4231,7 +4480,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I126" s="18">
         <f t="shared" si="4"/>
@@ -4247,7 +4496,9 @@
         <v>123</v>
       </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
+      <c r="C127" s="21" t="s">
+        <v>152</v>
+      </c>
       <c r="D127" s="1"/>
       <c r="E127" s="21" t="s">
         <v>152</v>
@@ -4272,7 +4523,9 @@
         <v>124</v>
       </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="C128" s="21" t="s">
+        <v>153</v>
+      </c>
       <c r="D128" s="1"/>
       <c r="E128" s="21" t="s">
         <v>152</v>
@@ -4297,7 +4550,9 @@
         <v>136</v>
       </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="C129" s="1">
+        <v>8</v>
+      </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1">
         <v>8</v>
@@ -4306,7 +4561,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I129" s="18">
         <f t="shared" si="4"/>

--- a/trunk/SRS ENTREGA/ENCUESTAS.xlsx
+++ b/trunk/SRS ENTREGA/ENCUESTAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="7740"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENCUESTA DE CRITERIOS" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="154">
   <si>
     <t>PRIORIDAD DE LOS REQUERIMIENTOS (1-10)</t>
   </si>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
@@ -1915,15 +1915,15 @@
       <c r="G31" s="2"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I31" s="18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>OPCIONAL</v>
+        <v>DESEABLE</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
@@ -1942,15 +1942,15 @@
       <c r="G32" s="2"/>
       <c r="H32" s="18">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I32" s="18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>OPCIONAL</v>
+        <v>DESEABLE</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -4796,8 +4796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4872,7 +4872,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="C4" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -4889,7 +4891,9 @@
         <v>11</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -4906,7 +4910,9 @@
         <v>12</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -4923,7 +4929,9 @@
         <v>13</v>
       </c>
       <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -4940,7 +4948,9 @@
         <v>14</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4957,7 +4967,9 @@
         <v>15</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -4974,7 +4986,9 @@
         <v>126</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -4991,7 +5005,9 @@
         <v>16</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -5008,7 +5024,9 @@
         <v>17</v>
       </c>
       <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -5025,7 +5043,9 @@
         <v>18</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -5042,7 +5062,9 @@
         <v>19</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -5059,7 +5081,9 @@
         <v>127</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -5076,7 +5100,9 @@
         <v>128</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -5093,7 +5119,9 @@
         <v>20</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -5110,7 +5138,9 @@
         <v>21</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -5127,7 +5157,9 @@
         <v>22</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -5144,7 +5176,9 @@
         <v>23</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -5161,7 +5195,9 @@
         <v>24</v>
       </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -5178,7 +5214,9 @@
         <v>25</v>
       </c>
       <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -5195,7 +5233,9 @@
         <v>26</v>
       </c>
       <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -5212,7 +5252,9 @@
         <v>27</v>
       </c>
       <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -5229,7 +5271,9 @@
         <v>28</v>
       </c>
       <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -5246,7 +5290,9 @@
         <v>29</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="C26" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -5263,7 +5309,9 @@
         <v>30</v>
       </c>
       <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -5280,7 +5328,9 @@
         <v>31</v>
       </c>
       <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -5297,7 +5347,9 @@
         <v>32</v>
       </c>
       <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -5314,7 +5366,9 @@
         <v>129</v>
       </c>
       <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -5331,7 +5385,9 @@
         <v>33</v>
       </c>
       <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="11">
+        <v>0</v>
+      </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -5348,7 +5404,9 @@
         <v>34</v>
       </c>
       <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -5365,7 +5423,9 @@
         <v>35</v>
       </c>
       <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="11">
+        <v>0</v>
+      </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -5382,7 +5442,9 @@
         <v>36</v>
       </c>
       <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -5399,7 +5461,9 @@
         <v>37</v>
       </c>
       <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="C35" s="11">
+        <v>0</v>
+      </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -5416,7 +5480,9 @@
         <v>38</v>
       </c>
       <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -5433,7 +5499,9 @@
         <v>39</v>
       </c>
       <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -5450,7 +5518,9 @@
         <v>130</v>
       </c>
       <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -5467,7 +5537,9 @@
         <v>40</v>
       </c>
       <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="C39" s="11">
+        <v>0</v>
+      </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -5484,7 +5556,9 @@
         <v>41</v>
       </c>
       <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="C40" s="11">
+        <v>0</v>
+      </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -5501,7 +5575,9 @@
         <v>42</v>
       </c>
       <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -5518,7 +5594,9 @@
         <v>43</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -5535,7 +5613,9 @@
         <v>44</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="C43" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -5552,7 +5632,9 @@
         <v>45</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -5569,7 +5651,9 @@
         <v>46</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -5586,7 +5670,9 @@
         <v>47</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -5603,7 +5689,9 @@
         <v>48</v>
       </c>
       <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="C47" s="18">
+        <v>1</v>
+      </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -5620,7 +5708,9 @@
         <v>49</v>
       </c>
       <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -5637,7 +5727,9 @@
         <v>50</v>
       </c>
       <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -5654,7 +5746,9 @@
         <v>51</v>
       </c>
       <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>0</v>
+      </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -5671,7 +5765,9 @@
         <v>52</v>
       </c>
       <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+      <c r="C51" s="11">
+        <v>0</v>
+      </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -5688,7 +5784,9 @@
         <v>53</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
+      <c r="C52" s="11">
+        <v>0</v>
+      </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -5705,7 +5803,9 @@
         <v>54</v>
       </c>
       <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
@@ -5722,7 +5822,9 @@
         <v>55</v>
       </c>
       <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -5739,7 +5841,9 @@
         <v>56</v>
       </c>
       <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+      <c r="C55" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -5756,7 +5860,9 @@
         <v>57</v>
       </c>
       <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="C56" s="11">
+        <v>1</v>
+      </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
@@ -5773,7 +5879,9 @@
         <v>58</v>
       </c>
       <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+      <c r="C57" s="11">
+        <v>1</v>
+      </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -5790,7 +5898,9 @@
         <v>59</v>
       </c>
       <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -5807,7 +5917,9 @@
         <v>60</v>
       </c>
       <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
+      <c r="C59" s="11">
+        <v>0</v>
+      </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
@@ -5824,7 +5936,9 @@
         <v>131</v>
       </c>
       <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+      <c r="C60" s="11">
+        <v>0</v>
+      </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
@@ -5841,7 +5955,9 @@
         <v>61</v>
       </c>
       <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
+      <c r="C61" s="11">
+        <v>1</v>
+      </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
@@ -5858,7 +5974,9 @@
         <v>62</v>
       </c>
       <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+      <c r="C62" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
@@ -5875,7 +5993,9 @@
         <v>63</v>
       </c>
       <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+      <c r="C63" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
@@ -5892,7 +6012,9 @@
         <v>64</v>
       </c>
       <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+      <c r="C64" s="11">
+        <v>0</v>
+      </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
@@ -5909,7 +6031,9 @@
         <v>132</v>
       </c>
       <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="C65" s="11">
+        <v>0</v>
+      </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
@@ -5926,7 +6050,9 @@
         <v>133</v>
       </c>
       <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+      <c r="C66" s="11">
+        <v>0</v>
+      </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
@@ -5943,7 +6069,9 @@
         <v>65</v>
       </c>
       <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
+      <c r="C67" s="11">
+        <v>0</v>
+      </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
@@ -5960,7 +6088,9 @@
         <v>66</v>
       </c>
       <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
+      <c r="C68" s="11">
+        <v>0</v>
+      </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -5977,7 +6107,9 @@
         <v>67</v>
       </c>
       <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+      <c r="C69" s="11">
+        <v>0</v>
+      </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
@@ -5994,7 +6126,9 @@
         <v>68</v>
       </c>
       <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+      <c r="C70" s="11">
+        <v>0</v>
+      </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
@@ -6011,7 +6145,9 @@
         <v>69</v>
       </c>
       <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
+      <c r="C71" s="11">
+        <v>1</v>
+      </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
@@ -6028,7 +6164,9 @@
         <v>70</v>
       </c>
       <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
+      <c r="C72" s="11">
+        <v>0</v>
+      </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -6045,7 +6183,9 @@
         <v>71</v>
       </c>
       <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
+      <c r="C73" s="11">
+        <v>1</v>
+      </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
@@ -6062,7 +6202,9 @@
         <v>72</v>
       </c>
       <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
+      <c r="C74" s="11">
+        <v>1</v>
+      </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
@@ -6079,7 +6221,9 @@
         <v>73</v>
       </c>
       <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
+      <c r="C75" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
@@ -6096,7 +6240,9 @@
         <v>74</v>
       </c>
       <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
+      <c r="C76" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
@@ -6113,7 +6259,9 @@
         <v>75</v>
       </c>
       <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
+      <c r="C77" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
@@ -6130,7 +6278,9 @@
         <v>76</v>
       </c>
       <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
+      <c r="C78" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
@@ -6147,7 +6297,9 @@
         <v>77</v>
       </c>
       <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
+      <c r="C79" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -6164,7 +6316,9 @@
         <v>78</v>
       </c>
       <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
+      <c r="C80" s="11">
+        <v>1</v>
+      </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
@@ -6181,7 +6335,9 @@
         <v>79</v>
       </c>
       <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
+      <c r="C81" s="11">
+        <v>1</v>
+      </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
@@ -6198,7 +6354,9 @@
         <v>80</v>
       </c>
       <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
+      <c r="C82" s="11">
+        <v>0</v>
+      </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -6215,7 +6373,9 @@
         <v>81</v>
       </c>
       <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
+      <c r="C83" s="11">
+        <v>1</v>
+      </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6232,7 +6392,9 @@
         <v>82</v>
       </c>
       <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
+      <c r="C84" s="11">
+        <v>1</v>
+      </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -6249,7 +6411,9 @@
         <v>83</v>
       </c>
       <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
+      <c r="C85" s="11">
+        <v>0</v>
+      </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
@@ -6266,7 +6430,9 @@
         <v>84</v>
       </c>
       <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
+      <c r="C86" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6283,7 +6449,9 @@
         <v>85</v>
       </c>
       <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
+      <c r="C87" s="11">
+        <v>1</v>
+      </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
@@ -6300,7 +6468,9 @@
         <v>86</v>
       </c>
       <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
+      <c r="C88" s="11">
+        <v>1</v>
+      </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6317,7 +6487,9 @@
         <v>87</v>
       </c>
       <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
+      <c r="C89" s="11">
+        <v>0</v>
+      </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
@@ -6334,7 +6506,9 @@
         <v>88</v>
       </c>
       <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
+      <c r="C90" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
@@ -6351,7 +6525,9 @@
         <v>89</v>
       </c>
       <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
+      <c r="C91" s="11">
+        <v>0</v>
+      </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -6368,7 +6544,9 @@
         <v>134</v>
       </c>
       <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
+      <c r="C92" s="11">
+        <v>1</v>
+      </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
@@ -6385,7 +6563,9 @@
         <v>90</v>
       </c>
       <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
+      <c r="C93" s="11">
+        <v>0</v>
+      </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
@@ -6402,7 +6582,9 @@
         <v>91</v>
       </c>
       <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
+      <c r="C94" s="11">
+        <v>0</v>
+      </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
@@ -6419,7 +6601,9 @@
         <v>92</v>
       </c>
       <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
+      <c r="C95" s="11">
+        <v>0</v>
+      </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
@@ -6436,7 +6620,9 @@
         <v>93</v>
       </c>
       <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
+      <c r="C96" s="11">
+        <v>0</v>
+      </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
@@ -6453,7 +6639,9 @@
         <v>94</v>
       </c>
       <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
+      <c r="C97" s="11">
+        <v>1</v>
+      </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
@@ -6470,7 +6658,9 @@
         <v>95</v>
       </c>
       <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
+      <c r="C98" s="11">
+        <v>0</v>
+      </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
@@ -6487,7 +6677,9 @@
         <v>96</v>
       </c>
       <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
+      <c r="C99" s="11">
+        <v>0</v>
+      </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
@@ -6504,7 +6696,9 @@
         <v>97</v>
       </c>
       <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
+      <c r="C100" s="11">
+        <v>1</v>
+      </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
@@ -6521,7 +6715,9 @@
         <v>98</v>
       </c>
       <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
+      <c r="C101" s="11">
+        <v>1</v>
+      </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
@@ -6538,7 +6734,9 @@
         <v>99</v>
       </c>
       <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
+      <c r="C102" s="11">
+        <v>1</v>
+      </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
@@ -6555,7 +6753,9 @@
         <v>100</v>
       </c>
       <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
+      <c r="C103" s="11">
+        <v>1</v>
+      </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
@@ -6572,7 +6772,9 @@
         <v>101</v>
       </c>
       <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
+      <c r="C104" s="11">
+        <v>0</v>
+      </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
@@ -6589,7 +6791,9 @@
         <v>102</v>
       </c>
       <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
+      <c r="C105" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
@@ -6606,7 +6810,9 @@
         <v>103</v>
       </c>
       <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
+      <c r="C106" s="11">
+        <v>1</v>
+      </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
@@ -6623,7 +6829,9 @@
         <v>104</v>
       </c>
       <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
+      <c r="C107" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
@@ -6640,7 +6848,9 @@
         <v>105</v>
       </c>
       <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
+      <c r="C108" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
@@ -6657,7 +6867,9 @@
         <v>106</v>
       </c>
       <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
+      <c r="C109" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
@@ -6674,7 +6886,9 @@
         <v>107</v>
       </c>
       <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
+      <c r="C110" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
@@ -6691,7 +6905,9 @@
         <v>108</v>
       </c>
       <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
+      <c r="C111" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
@@ -6708,7 +6924,9 @@
         <v>109</v>
       </c>
       <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
+      <c r="C112" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
@@ -6725,7 +6943,9 @@
         <v>110</v>
       </c>
       <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
+      <c r="C113" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
@@ -6742,7 +6962,9 @@
         <v>111</v>
       </c>
       <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
+      <c r="C114" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
@@ -6759,7 +6981,9 @@
         <v>112</v>
       </c>
       <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
+      <c r="C115" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
@@ -6776,7 +7000,9 @@
         <v>113</v>
       </c>
       <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
+      <c r="C116" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
@@ -6793,7 +7019,9 @@
         <v>114</v>
       </c>
       <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
+      <c r="C117" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
@@ -6810,7 +7038,9 @@
         <v>115</v>
       </c>
       <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
+      <c r="C118" s="11">
+        <v>0</v>
+      </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
@@ -6827,7 +7057,9 @@
         <v>116</v>
       </c>
       <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
+      <c r="C119" s="18">
+        <v>0</v>
+      </c>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
@@ -6844,7 +7076,9 @@
         <v>117</v>
       </c>
       <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
+      <c r="C120" s="18">
+        <v>1</v>
+      </c>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
@@ -6861,7 +7095,9 @@
         <v>118</v>
       </c>
       <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
+      <c r="C121" s="18">
+        <v>0</v>
+      </c>
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
@@ -6878,7 +7114,9 @@
         <v>135</v>
       </c>
       <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
+      <c r="C122" s="18">
+        <v>1</v>
+      </c>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
@@ -6895,7 +7133,9 @@
         <v>119</v>
       </c>
       <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
+      <c r="C123" s="18">
+        <v>1</v>
+      </c>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
@@ -6912,7 +7152,9 @@
         <v>120</v>
       </c>
       <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
+      <c r="C124" s="18">
+        <v>1</v>
+      </c>
       <c r="D124" s="14"/>
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
@@ -6929,7 +7171,9 @@
         <v>121</v>
       </c>
       <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
+      <c r="C125" s="18">
+        <v>1</v>
+      </c>
       <c r="D125" s="14"/>
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
@@ -6946,7 +7190,9 @@
         <v>122</v>
       </c>
       <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
+      <c r="C126" s="18">
+        <v>1</v>
+      </c>
       <c r="D126" s="14"/>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
@@ -6963,7 +7209,9 @@
         <v>123</v>
       </c>
       <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
+      <c r="C127" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D127" s="14"/>
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
@@ -6980,7 +7228,9 @@
         <v>124</v>
       </c>
       <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
+      <c r="C128" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
@@ -6997,7 +7247,9 @@
         <v>136</v>
       </c>
       <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
+      <c r="C129" s="18">
+        <v>1</v>
+      </c>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
